--- a/codes/test_shell_output/testall_Mjhor_Mhmos_details_2.xlsx
+++ b/codes/test_shell_output/testall_Mjhor_Mhmos_details_2.xlsx
@@ -348,18 +348,18 @@
   <sheetData>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>45.32425653887496</v>
+        <v>55.80994197898698</v>
       </c>
       <c r="B6">
-        <v>45.32425653887496</v>
+        <v>55.80994197898698</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>14.83339304908635</v>
+        <v>21.0600595891485</v>
       </c>
       <c r="B9">
-        <v>14.83339304908635</v>
+        <v>21.0600595891485</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testall_Mjhor_Mhmos_details_2.xlsx
+++ b/codes/test_shell_output/testall_Mjhor_Mhmos_details_2.xlsx
@@ -348,18 +348,18 @@
   <sheetData>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>55.80994197898698</v>
+        <v>31.49847094801223</v>
       </c>
       <c r="B6">
-        <v>55.80994197898698</v>
+        <v>31.49847094801223</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>21.0600595891485</v>
+        <v>10.83078491335372</v>
       </c>
       <c r="B9">
-        <v>21.0600595891485</v>
+        <v>10.83078491335372</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testall_Mjhor_Mhmos_details_2.xlsx
+++ b/codes/test_shell_output/testall_Mjhor_Mhmos_details_2.xlsx
@@ -348,18 +348,18 @@
   <sheetData>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>31.49847094801223</v>
+        <v>31.73473210940427</v>
       </c>
       <c r="B6">
-        <v>31.49847094801223</v>
+        <v>31.73473210940427</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>10.83078491335372</v>
+        <v>10.95916073435744</v>
       </c>
       <c r="B9">
-        <v>10.83078491335372</v>
+        <v>10.95916073435744</v>
       </c>
     </row>
   </sheetData>
